--- a/src/data/leadership/leadership_spring19.xlsx
+++ b/src/data/leadership/leadership_spring19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/leadership/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A706CB-A427-CC42-AE7F-0500FA1F9437}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED03D32-1817-8148-82CD-1F8BB6889EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="7900" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="19440" yWindow="14420" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/data/leadership/leadership_spring19.xlsx
+++ b/src/data/leadership/leadership_spring19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/leadership/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED03D32-1817-8148-82CD-1F8BB6889EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3C2A9-33E1-254E-8143-29A983F768F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="14420" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="19380" yWindow="15020" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/data/leadership/leadership_spring19.xlsx
+++ b/src/data/leadership/leadership_spring19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/leadership/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3C2A9-33E1-254E-8143-29A983F768F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCFE310-6261-0547-A3BC-834940868B94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="15020" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="23160" yWindow="7340" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,52 +51,52 @@
     <t>Senior Vice President</t>
   </si>
   <si>
+    <t>Vice President of Pledge Education</t>
+  </si>
+  <si>
+    <t>Jason Cao</t>
+  </si>
+  <si>
+    <t>Vice President of Finance</t>
+  </si>
+  <si>
+    <t>Chuck Wong</t>
+  </si>
+  <si>
+    <t>Vice President of Chapter Operations</t>
+  </si>
+  <si>
+    <t>Neil Wong</t>
+  </si>
+  <si>
+    <t>Chancellor</t>
+  </si>
+  <si>
+    <t>Edward Li</t>
+  </si>
+  <si>
+    <t>Vice President of Professional Activities</t>
+  </si>
+  <si>
+    <t>Vice President of Community Service</t>
+  </si>
+  <si>
+    <t>Kristen Chan</t>
+  </si>
+  <si>
+    <t>Uyen Sy</t>
+  </si>
+  <si>
+    <t>Vice President of Scholarship and Awards</t>
+  </si>
+  <si>
+    <t>Aimee Han</t>
+  </si>
+  <si>
+    <t>Vice President of Alumni Relations</t>
+  </si>
+  <si>
     <t>TBA</t>
-  </si>
-  <si>
-    <t>Vice President of Pledge Education</t>
-  </si>
-  <si>
-    <t>Jason Cao</t>
-  </si>
-  <si>
-    <t>Vice President of Finance</t>
-  </si>
-  <si>
-    <t>Chuck Wong</t>
-  </si>
-  <si>
-    <t>Vice President of Chapter Operations</t>
-  </si>
-  <si>
-    <t>Neil Wong</t>
-  </si>
-  <si>
-    <t>Chancellor</t>
-  </si>
-  <si>
-    <t>Edward Li</t>
-  </si>
-  <si>
-    <t>Vice President of Professional Activities</t>
-  </si>
-  <si>
-    <t>Vice President of Community Service</t>
-  </si>
-  <si>
-    <t>Kristen Chan</t>
-  </si>
-  <si>
-    <t>Uyen Sy</t>
-  </si>
-  <si>
-    <t>Vice President of Scholarship and Awards</t>
-  </si>
-  <si>
-    <t>Aimee Han</t>
-  </si>
-  <si>
-    <t>Vice President of Alumni Relations</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2DE730-9C1E-3843-9F88-00F2CA5F5D49}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,66 +482,66 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
